--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SD card speed low Change card</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>SD card speed low Change card</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,42 +596,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,42 +671,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,62 +746,62 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Precision Landing Correcting Landing Position</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,21 +812,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,16 +862,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -912,21 +912,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,16 +987,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point</t>
+          <t>Home Point Recorded Taking off</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,21 +1062,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land</t>
+          <t>Precision Landing Locating Landing Point</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1087,16 +1087,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1112,21 +1112,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,71 +1137,71 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Critically Low Voltage Aircraft will land</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,46 +1212,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Loading database failed Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1262,21 +1262,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1287,71 +1287,71 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-17</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,21 +1362,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1387,46 +1387,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,21 +1437,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1462,16 +1462,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Drag a box around or tap a target on screen Then tap Go</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1487,21 +1487,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1512,21 +1512,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1537,16 +1537,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point</t>
+          <t>Aircraft GPS signal too weak Home Point not updated</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1562,21 +1562,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1587,21 +1587,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1612,21 +1612,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1662,21 +1662,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Low Power Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1712,11 +1712,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1737,21 +1737,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1762,21 +1762,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1787,21 +1787,21 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1812,26 +1812,276 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
+        <v>19</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Flight altitude restricted to nnn</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>19</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GEO Zone Info:</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9-13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>21</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>21</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0-10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>22</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Missing</t>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>22</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>22</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0-10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low Change card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SD card speed low Change card</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,42 +596,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,42 +671,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,62 +746,62 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing Correcting Landing Position</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,21 +812,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,16 +862,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -912,21 +912,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
+          <t>Home Point Recorded Taking off</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,16 +987,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off</t>
+          <t>Precision Landing Locating Landing Point</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,21 +1062,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point</t>
+          <t>Critically Low Voltage Aircraft will land</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1087,16 +1087,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1112,21 +1112,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,71 +1137,71 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,46 +1212,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1262,21 +1262,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1287,71 +1287,71 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-17</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Drag a box around or tap a target on screen Then tap Go</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,21 +1362,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1387,46 +1387,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft GPS signal too weak Home Point not updated</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,21 +1437,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1462,16 +1462,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1487,21 +1487,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1512,21 +1512,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1537,16 +1537,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated</t>
+          <t>Low Power Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1562,21 +1562,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1587,21 +1587,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1612,21 +1612,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1662,21 +1662,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1712,11 +1712,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1737,21 +1737,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1762,21 +1762,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1787,21 +1787,21 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1812,276 +1812,26 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>19</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>GEO Zone Info:</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>20</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>20</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>20</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>21</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>21</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>21</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>22</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>22</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>22</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
